--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gdnf-Ret.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gdnf-Ret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,12 +89,6 @@
   </si>
   <si>
     <t>Ret</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.96201924070688</v>
+        <v>0.2159706666666667</v>
       </c>
       <c r="H2">
-        <v>1.96201924070688</v>
+        <v>0.647912</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.05773722394873237</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.08136311778596962</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.50950410731327</v>
+        <v>1.986848333333333</v>
       </c>
       <c r="N2">
-        <v>1.50950410731327</v>
+        <v>5.960545</v>
       </c>
       <c r="O2">
-        <v>0.283036365934703</v>
+        <v>0.3070436244112906</v>
       </c>
       <c r="P2">
-        <v>0.283036365934703</v>
+        <v>0.3340680476987617</v>
       </c>
       <c r="Q2">
-        <v>2.961676102474699</v>
+        <v>0.4291009591155556</v>
       </c>
       <c r="R2">
-        <v>2.961676102474699</v>
+        <v>3.86190863204</v>
       </c>
       <c r="S2">
-        <v>0.283036365934703</v>
+        <v>0.01772784650466515</v>
       </c>
       <c r="T2">
-        <v>0.283036365934703</v>
+        <v>0.02718081791344327</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.96201924070688</v>
+        <v>0.2159706666666667</v>
       </c>
       <c r="H3">
-        <v>1.96201924070688</v>
+        <v>0.647912</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.05773722394873237</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.08136311778596962</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.8946188059645</v>
+        <v>2.913661333333334</v>
       </c>
       <c r="N3">
-        <v>2.8946188059645</v>
+        <v>8.740984000000001</v>
       </c>
       <c r="O3">
-        <v>0.5427493596321922</v>
+        <v>0.4502714782425266</v>
       </c>
       <c r="P3">
-        <v>0.5427493596321922</v>
+        <v>0.4899020911420204</v>
       </c>
       <c r="Q3">
-        <v>5.679297791814323</v>
+        <v>0.629265380600889</v>
       </c>
       <c r="R3">
-        <v>5.679297791814323</v>
+        <v>5.663388425408001</v>
       </c>
       <c r="S3">
-        <v>0.5427493596321922</v>
+        <v>0.02599742517701553</v>
       </c>
       <c r="T3">
-        <v>0.5427493596321922</v>
+        <v>0.03985996154518103</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,433 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.2159706666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.647912</v>
+      </c>
+      <c r="I4">
+        <v>0.05773722394873237</v>
+      </c>
+      <c r="J4">
+        <v>0.08136311778596962</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1.5703895</v>
+      </c>
+      <c r="N4">
+        <v>3.140779</v>
+      </c>
+      <c r="O4">
+        <v>0.2426848973461828</v>
+      </c>
+      <c r="P4">
+        <v>0.1760298611592177</v>
+      </c>
+      <c r="Q4">
+        <v>0.3391580672413333</v>
+      </c>
+      <c r="R4">
+        <v>2.034948403448</v>
+      </c>
+      <c r="S4">
+        <v>0.01401195226705168</v>
+      </c>
+      <c r="T4">
+        <v>0.01432233832734531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.2660856666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.798257</v>
+      </c>
+      <c r="I5">
+        <v>0.07113488124566801</v>
+      </c>
+      <c r="J5">
+        <v>0.1002430550977212</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.986848333333333</v>
+      </c>
+      <c r="N5">
+        <v>5.960545</v>
+      </c>
+      <c r="O5">
+        <v>0.3070436244112906</v>
+      </c>
+      <c r="P5">
+        <v>0.3340680476987617</v>
+      </c>
+      <c r="Q5">
+        <v>0.5286718633405556</v>
+      </c>
+      <c r="R5">
+        <v>4.758046770065</v>
+      </c>
+      <c r="S5">
+        <v>0.02184151175973665</v>
+      </c>
+      <c r="T5">
+        <v>0.03348800171185513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.2660856666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.798257</v>
+      </c>
+      <c r="I6">
+        <v>0.07113488124566801</v>
+      </c>
+      <c r="J6">
+        <v>0.1002430550977212</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.913661333333334</v>
+      </c>
+      <c r="N6">
+        <v>8.740984000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.4502714782425266</v>
+      </c>
+      <c r="P6">
+        <v>0.4899020911420204</v>
+      </c>
+      <c r="Q6">
+        <v>0.7752835183208889</v>
+      </c>
+      <c r="R6">
+        <v>6.977551664888001</v>
+      </c>
+      <c r="S6">
+        <v>0.03203000813309351</v>
+      </c>
+      <c r="T6">
+        <v>0.04910928231483838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.2660856666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.798257</v>
+      </c>
+      <c r="I7">
+        <v>0.07113488124566801</v>
+      </c>
+      <c r="J7">
+        <v>0.1002430550977212</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.5703895</v>
+      </c>
+      <c r="N7">
+        <v>3.140779</v>
+      </c>
+      <c r="O7">
+        <v>0.2426848973461828</v>
+      </c>
+      <c r="P7">
+        <v>0.1760298611592177</v>
+      </c>
+      <c r="Q7">
+        <v>0.4178581370338333</v>
+      </c>
+      <c r="R7">
+        <v>2.507148822203</v>
+      </c>
+      <c r="S7">
+        <v>0.01726336135283785</v>
+      </c>
+      <c r="T7">
+        <v>0.01764577107102768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.96201924070688</v>
-      </c>
-      <c r="H4">
-        <v>1.96201924070688</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.929128530678076</v>
-      </c>
-      <c r="N4">
-        <v>0.929128530678076</v>
-      </c>
-      <c r="O4">
-        <v>0.1742142744331047</v>
-      </c>
-      <c r="P4">
-        <v>0.1742142744331047</v>
-      </c>
-      <c r="Q4">
-        <v>1.822968054280098</v>
-      </c>
-      <c r="R4">
-        <v>1.822968054280098</v>
-      </c>
-      <c r="S4">
-        <v>0.1742142744331047</v>
-      </c>
-      <c r="T4">
-        <v>0.1742142744331047</v>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.258523</v>
+      </c>
+      <c r="H8">
+        <v>6.517046</v>
+      </c>
+      <c r="I8">
+        <v>0.8711278948055996</v>
+      </c>
+      <c r="J8">
+        <v>0.8183938271163091</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.986848333333333</v>
+      </c>
+      <c r="N8">
+        <v>5.960545</v>
+      </c>
+      <c r="O8">
+        <v>0.3070436244112906</v>
+      </c>
+      <c r="P8">
+        <v>0.3340680476987617</v>
+      </c>
+      <c r="Q8">
+        <v>6.474190991678333</v>
+      </c>
+      <c r="R8">
+        <v>38.84514595007</v>
+      </c>
+      <c r="S8">
+        <v>0.2674742661468887</v>
+      </c>
+      <c r="T8">
+        <v>0.2733992280734633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.258523</v>
+      </c>
+      <c r="H9">
+        <v>6.517046</v>
+      </c>
+      <c r="I9">
+        <v>0.8711278948055996</v>
+      </c>
+      <c r="J9">
+        <v>0.8183938271163091</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.913661333333334</v>
+      </c>
+      <c r="N9">
+        <v>8.740984000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.4502714782425266</v>
+      </c>
+      <c r="P9">
+        <v>0.4899020911420204</v>
+      </c>
+      <c r="Q9">
+        <v>9.494232468877334</v>
+      </c>
+      <c r="R9">
+        <v>56.96539481326401</v>
+      </c>
+      <c r="S9">
+        <v>0.3922440449324175</v>
+      </c>
+      <c r="T9">
+        <v>0.400932847282001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.258523</v>
+      </c>
+      <c r="H10">
+        <v>6.517046</v>
+      </c>
+      <c r="I10">
+        <v>0.8711278948055996</v>
+      </c>
+      <c r="J10">
+        <v>0.8183938271163091</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.5703895</v>
+      </c>
+      <c r="N10">
+        <v>3.140779</v>
+      </c>
+      <c r="O10">
+        <v>0.2426848973461828</v>
+      </c>
+      <c r="P10">
+        <v>0.1760298611592177</v>
+      </c>
+      <c r="Q10">
+        <v>5.1171503047085</v>
+      </c>
+      <c r="R10">
+        <v>20.468601218834</v>
+      </c>
+      <c r="S10">
+        <v>0.2114095837262933</v>
+      </c>
+      <c r="T10">
+        <v>0.1440617517608447</v>
       </c>
     </row>
   </sheetData>
